--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Vipr2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H2">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I2">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J2">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3508273333333333</v>
+        <v>0.077915</v>
       </c>
       <c r="N2">
-        <v>1.052482</v>
+        <v>0.233745</v>
       </c>
       <c r="O2">
-        <v>0.1248367457344541</v>
+        <v>0.01344156357222124</v>
       </c>
       <c r="P2">
-        <v>0.1598401480061556</v>
+        <v>0.01898188492565723</v>
       </c>
       <c r="Q2">
-        <v>1.552714415643334</v>
+        <v>0.1912303426183333</v>
       </c>
       <c r="R2">
-        <v>13.97442974079</v>
+        <v>1.721073083565</v>
       </c>
       <c r="S2">
-        <v>0.0576725920937996</v>
+        <v>0.003840885661267591</v>
       </c>
       <c r="T2">
-        <v>0.07506451049607937</v>
+        <v>0.005746981069116634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H3">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I3">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J3">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>1.839557</v>
       </c>
       <c r="O3">
-        <v>0.2181930992387853</v>
+        <v>0.1057841766036689</v>
       </c>
       <c r="P3">
-        <v>0.2793730088930353</v>
+        <v>0.1493861228611831</v>
       </c>
       <c r="Q3">
-        <v>2.713876980601667</v>
+        <v>1.504969583845444</v>
       </c>
       <c r="R3">
-        <v>24.424892825415</v>
+        <v>13.544726254609</v>
       </c>
       <c r="S3">
-        <v>0.1008017433973158</v>
+        <v>0.0302275047782174</v>
       </c>
       <c r="T3">
-        <v>0.1311998169418919</v>
+        <v>0.04522834394130779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H4">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I4">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J4">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.846276</v>
+        <v>0.029863</v>
       </c>
       <c r="N4">
-        <v>3.692552</v>
+        <v>0.089589</v>
       </c>
       <c r="O4">
-        <v>0.6569701550267606</v>
+        <v>0.005151837424850708</v>
       </c>
       <c r="P4">
-        <v>0.5607868431008092</v>
+        <v>0.007275313219982055</v>
       </c>
       <c r="Q4">
-        <v>8.171368328740002</v>
+        <v>0.07329412464366666</v>
       </c>
       <c r="R4">
-        <v>49.02820997244001</v>
+        <v>0.659647121793</v>
       </c>
       <c r="S4">
-        <v>0.3035097682637004</v>
+        <v>0.00147212178017627</v>
       </c>
       <c r="T4">
-        <v>0.2633580511223174</v>
+        <v>0.002202683638157352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.686805</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H5">
-        <v>14.060415</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I5">
-        <v>0.4892217470254037</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J5">
-        <v>0.4973103589802793</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3508273333333333</v>
+        <v>5.075609</v>
       </c>
       <c r="N5">
-        <v>1.052482</v>
+        <v>10.151218</v>
       </c>
       <c r="O5">
-        <v>0.1248367457344541</v>
+        <v>0.8756224223992591</v>
       </c>
       <c r="P5">
-        <v>0.1598401480061556</v>
+        <v>0.8243566789931777</v>
       </c>
       <c r="Q5">
-        <v>1.644259300003333</v>
+        <v>12.45729895484433</v>
       </c>
       <c r="R5">
-        <v>14.79833370003</v>
+        <v>74.743793729066</v>
       </c>
       <c r="S5">
-        <v>0.06107285084117576</v>
+        <v>0.2502064279060609</v>
       </c>
       <c r="T5">
-        <v>0.07949016138440221</v>
+        <v>0.2495833394274788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H6">
         <v>14.060415</v>
       </c>
       <c r="I6">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J6">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6131856666666667</v>
+        <v>0.077915</v>
       </c>
       <c r="N6">
-        <v>1.839557</v>
+        <v>0.233745</v>
       </c>
       <c r="O6">
-        <v>0.2181930992387853</v>
+        <v>0.01344156357222124</v>
       </c>
       <c r="P6">
-        <v>0.2793730088930353</v>
+        <v>0.01898188492565723</v>
       </c>
       <c r="Q6">
-        <v>2.873881648461667</v>
+        <v>0.365172411575</v>
       </c>
       <c r="R6">
-        <v>25.864934836155</v>
+        <v>3.286551704175</v>
       </c>
       <c r="S6">
-        <v>0.1067448091984858</v>
+        <v>0.007334534155535516</v>
       </c>
       <c r="T6">
-        <v>0.1389350913419961</v>
+        <v>0.01097440347358346</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H7">
         <v>14.060415</v>
       </c>
       <c r="I7">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J7">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.846276</v>
+        <v>0.6131856666666667</v>
       </c>
       <c r="N7">
-        <v>3.692552</v>
+        <v>1.839557</v>
       </c>
       <c r="O7">
-        <v>0.6569701550267606</v>
+        <v>0.1057841766036689</v>
       </c>
       <c r="P7">
-        <v>0.5607868431008092</v>
+        <v>0.1493861228611831</v>
       </c>
       <c r="Q7">
-        <v>8.65313558818</v>
+        <v>2.873881648461667</v>
       </c>
       <c r="R7">
-        <v>51.91881352908</v>
+        <v>25.864934836155</v>
       </c>
       <c r="S7">
-        <v>0.3214040869857421</v>
+        <v>0.05772227704359216</v>
       </c>
       <c r="T7">
-        <v>0.278885106253881</v>
+        <v>0.08636779708936997</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.467454</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H8">
-        <v>0.9349080000000001</v>
+        <v>14.060415</v>
       </c>
       <c r="I8">
-        <v>0.04879414921978045</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J8">
-        <v>0.03306726245943203</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3508273333333333</v>
+        <v>0.029863</v>
       </c>
       <c r="N8">
-        <v>1.052482</v>
+        <v>0.089589</v>
       </c>
       <c r="O8">
-        <v>0.1248367457344541</v>
+        <v>0.005151837424850708</v>
       </c>
       <c r="P8">
-        <v>0.1598401480061556</v>
+        <v>0.007275313219982055</v>
       </c>
       <c r="Q8">
-        <v>0.163995640276</v>
+        <v>0.139962057715</v>
       </c>
       <c r="R8">
-        <v>0.983973841656</v>
+        <v>1.259658519435</v>
       </c>
       <c r="S8">
-        <v>0.006091302799478745</v>
+        <v>0.002811155663052777</v>
       </c>
       <c r="T8">
-        <v>0.005285476125674008</v>
+        <v>0.004206232573081218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.686805000000001</v>
+      </c>
+      <c r="H9">
+        <v>14.060415</v>
+      </c>
+      <c r="I9">
+        <v>0.5456607868665887</v>
+      </c>
+      <c r="J9">
+        <v>0.5781514068052169</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.467454</v>
-      </c>
-      <c r="H9">
-        <v>0.9349080000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.04879414921978045</v>
-      </c>
-      <c r="J9">
-        <v>0.03306726245943203</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6131856666666667</v>
+        <v>5.075609</v>
       </c>
       <c r="N9">
-        <v>1.839557</v>
+        <v>10.151218</v>
       </c>
       <c r="O9">
-        <v>0.2181930992387853</v>
+        <v>0.8756224223992591</v>
       </c>
       <c r="P9">
-        <v>0.2793730088930353</v>
+        <v>0.8243566789931777</v>
       </c>
       <c r="Q9">
-        <v>0.286636092626</v>
+        <v>23.788389639245</v>
       </c>
       <c r="R9">
-        <v>1.719816555756</v>
+        <v>142.73033783547</v>
       </c>
       <c r="S9">
-        <v>0.01064654664298365</v>
+        <v>0.4777928200044083</v>
       </c>
       <c r="T9">
-        <v>0.009238100609147235</v>
+        <v>0.4766029736691823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1030,46 +1033,232 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H10">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I10">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J10">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.846276</v>
+        <v>0.077915</v>
       </c>
       <c r="N10">
-        <v>3.692552</v>
+        <v>0.233745</v>
       </c>
       <c r="O10">
-        <v>0.6569701550267606</v>
+        <v>0.01344156357222124</v>
       </c>
       <c r="P10">
-        <v>0.5607868431008092</v>
+        <v>0.01898188492565723</v>
       </c>
       <c r="Q10">
-        <v>0.863049101304</v>
+        <v>0.1128269584125</v>
       </c>
       <c r="R10">
-        <v>3.452196405216</v>
+        <v>0.6769617504749998</v>
       </c>
       <c r="S10">
-        <v>0.03205629977731805</v>
+        <v>0.002266143755418133</v>
       </c>
       <c r="T10">
-        <v>0.01854368572461079</v>
+        <v>0.002260500382957126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.4480775</v>
+      </c>
+      <c r="H11">
+        <v>2.896155</v>
+      </c>
+      <c r="I11">
+        <v>0.1685922730076891</v>
+      </c>
+      <c r="J11">
+        <v>0.1190872451187225</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6131856666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.839557</v>
+      </c>
+      <c r="O11">
+        <v>0.1057841766036689</v>
+      </c>
+      <c r="P11">
+        <v>0.1493861228611831</v>
+      </c>
+      <c r="Q11">
+        <v>0.8879403672225</v>
+      </c>
+      <c r="R11">
+        <v>5.327642203335</v>
+      </c>
+      <c r="S11">
+        <v>0.01783439478185935</v>
+      </c>
+      <c r="T11">
+        <v>0.0177899818305053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.4480775</v>
+      </c>
+      <c r="H12">
+        <v>2.896155</v>
+      </c>
+      <c r="I12">
+        <v>0.1685922730076891</v>
+      </c>
+      <c r="J12">
+        <v>0.1190872451187225</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.029863</v>
+      </c>
+      <c r="N12">
+        <v>0.089589</v>
+      </c>
+      <c r="O12">
+        <v>0.005151837424850708</v>
+      </c>
+      <c r="P12">
+        <v>0.007275313219982055</v>
+      </c>
+      <c r="Q12">
+        <v>0.0432439383825</v>
+      </c>
+      <c r="R12">
+        <v>0.259463630295</v>
+      </c>
+      <c r="S12">
+        <v>0.0008685599816216608</v>
+      </c>
+      <c r="T12">
+        <v>0.0008663970087434852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.4480775</v>
+      </c>
+      <c r="H13">
+        <v>2.896155</v>
+      </c>
+      <c r="I13">
+        <v>0.1685922730076891</v>
+      </c>
+      <c r="J13">
+        <v>0.1190872451187225</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.075609</v>
+      </c>
+      <c r="N13">
+        <v>10.151218</v>
+      </c>
+      <c r="O13">
+        <v>0.8756224223992591</v>
+      </c>
+      <c r="P13">
+        <v>0.8243566789931777</v>
+      </c>
+      <c r="Q13">
+        <v>7.3498751916975</v>
+      </c>
+      <c r="R13">
+        <v>29.39950076679</v>
+      </c>
+      <c r="S13">
+        <v>0.14762317448879</v>
+      </c>
+      <c r="T13">
+        <v>0.09817036589651659</v>
       </c>
     </row>
   </sheetData>
